--- a/data/03 output/03 tables/final_tables.xlsx
+++ b/data/03 output/03 tables/final_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b56c13e46b6a80f/Documents/GitHub/reverse_eu_pol/data/03 output/03 tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{C28938CE-2807-4352-822A-F3A62CF86455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F02CD8C1-25DF-4409-9F14-E991413090A1}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{C28938CE-2807-4352-822A-F3A62CF86455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76930571-B189-4A3C-B6D8-3A57C2817924}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6EC39F61-9961-4C0F-89C4-C0201E3C5476}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{6EC39F61-9961-4C0F-89C4-C0201E3C5476}"/>
   </bookViews>
   <sheets>
     <sheet name="eu" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>Electricity and heat</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Indirect N20 - nitrogen</t>
-  </si>
-  <si>
-    <t>Showing 1 to 9 of 9 entries, 9 total columns</t>
   </si>
   <si>
     <t>Emissions reduction (Mt CO2-e)</t>
@@ -112,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,12 +125,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -151,25 +142,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0C1F30"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -505,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F22130E-330A-45A7-B09E-F759430097A7}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +520,7 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -557,7 +536,7 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>-102.922596</v>
       </c>
     </row>
@@ -577,7 +556,7 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>-2.3836249</v>
       </c>
     </row>
@@ -600,7 +579,7 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>-42.035575000000001</v>
       </c>
     </row>
@@ -617,7 +596,7 @@
       <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>-16.573353300000001</v>
       </c>
     </row>
@@ -637,7 +616,7 @@
       <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>-6.1139010000000003</v>
       </c>
     </row>
@@ -654,7 +633,7 @@
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>-0.6401502</v>
       </c>
     </row>
@@ -674,7 +653,7 @@
       <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>-1.2110984</v>
       </c>
     </row>
@@ -697,7 +676,7 @@
       <c r="F9" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>-3.2411428999999998</v>
       </c>
     </row>
@@ -717,20 +696,14 @@
       <c r="F10" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>-2.0243522</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f>SUM(G2:G10)</f>
         <v>-177.1457939</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -742,9 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A95466F-1E9F-4C3A-AC21-7CCA892E792B}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -775,8 +746,8 @@
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>21</v>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -798,7 +769,7 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>-0.43884909999999999</v>
       </c>
     </row>
@@ -815,7 +786,7 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>-9.1133510000000001E-2</v>
       </c>
     </row>
@@ -832,7 +803,7 @@
       <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>-5.2636151599999996</v>
       </c>
     </row>
@@ -849,7 +820,7 @@
       <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>-4.3084642500000001</v>
       </c>
     </row>
@@ -872,7 +843,7 @@
       <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>-14.850509430000001</v>
       </c>
     </row>
